--- a/sample_excel_files/type_1_sub_right_different_formula_2.xlsx
+++ b/sample_excel_files/type_1_sub_right_different_formula_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopramanasuranta/Documents/Projects-CMUSV/Fall-2020/18980-GRA/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14B7E0C-F699-9F42-86FB-F90290F0D783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FD5BC-23BA-1D49-8F82-C5B3D6C832B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42280" yWindow="10100" windowWidth="21040" windowHeight="12920" xr2:uid="{E0450653-B2D8-E342-9DE9-A7B7C9F37F08}"/>
+    <workbookView xWindow="13360" yWindow="4560" windowWidth="28060" windowHeight="14140" xr2:uid="{E0450653-B2D8-E342-9DE9-A7B7C9F37F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Discounted_Total</t>
   </si>
 </sst>
 </file>
@@ -405,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731C799-78A7-C849-8E49-D29CD30B9485}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -465,6 +468,15 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> (1 - 0.1) * B6</f>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
